--- a/config_Release/broadcast_id_partition.xlsx
+++ b/config_Release/broadcast_id_partition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>fish_3d_game_challenge_award</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>luck_lottery_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>luck_lottery_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">buyu_task_get_award </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,7 +604,7 @@
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,15 +685,30 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
